--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1694258.756107391</v>
+        <v>1772714.869418025</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760735</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6563180.444054998</v>
+        <v>6992875.165104927</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>353.7742984338904</v>
       </c>
       <c r="Y2" t="n">
-        <v>140.2766584198288</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>120.6429778048375</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -826,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>35.15678048870571</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -877,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>369.393944035918</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>219.7505999166818</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1102,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>209.0468548325626</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1142,16 +1144,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>307.6905268672955</v>
+        <v>205.0873641277763</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1306,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>242.4564042518786</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>156.3950745845503</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>417.9833126354919</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1382,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>44.9879557728238</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>123.0673923170405</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1610,10 +1612,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477372</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1670,10 +1672,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>146.7299909631097</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>20.24824748785599</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2053,19 +2055,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>186.810132212935</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2093,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>146.1447286778223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.12442881973583</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.47672585003512</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.2284282554371</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2959,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>260.444681387164</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.952014352242029</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>102.0412378013745</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3424,10 +3426,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>88.76900695998468</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>161.6737988100367</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>4.322062388456545</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>3.602641900785378</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3724,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3743,10 +3745,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>348.2930417606527</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6770388427902</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>123.0673923170407</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>212.1432039770657</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>363.9621710259976</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>147.7993290726197</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>103.0767555432928</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>11.12043047005112</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>568.8670150191533</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C2" t="n">
-        <v>546.0066890728575</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D2" t="n">
-        <v>526.7544722982618</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8179364865234</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>667.4947029893171</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L2" t="n">
-        <v>667.4947029893171</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="M2" t="n">
-        <v>667.4947029893171</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>667.4947029893171</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4358,22 +4360,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1542.1289725064</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>1542.1289725064</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X2" t="n">
-        <v>1130.408973674147</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y2" t="n">
-        <v>988.7153793106834</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>756.3555336978366</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>645.7643351504313</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>473.7917720293473</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>310.474999156118</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4486,52 +4488,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2142.360739666009</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1899.021391891909</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1618.836943392213</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.125476000242</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>1062.273072172755</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="X4" t="n">
-        <v>1062.273072172755</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="Y4" t="n">
-        <v>835.9303038624969</v>
+        <v>1249.540941315744</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1842.637416540946</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>1819.77709059465</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4568,49 +4570,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1867.421837588626</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.742242796777</v>
+        <v>1716.473013844015</v>
       </c>
       <c r="Y5" t="n">
-        <v>1858.445376792072</v>
+        <v>1715.176147839309</v>
       </c>
     </row>
     <row r="6">
@@ -4656,16 +4658,16 @@
         <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789.4498147466326</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>789.4498147466326</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1330418734033</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4750,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1723.374852150638</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1723.374852150638</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1448.522448323151</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1205.958551768956</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.6157834586982</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>831.8385222885897</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C8" t="n">
-        <v>808.9781963422939</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>572.914647509062</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>1570.164993359136</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X8" t="n">
-        <v>1158.444994526883</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y8" t="n">
-        <v>847.6464825397157</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="9">
@@ -4884,25 +4886,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="N9" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M9" t="n">
-        <v>1145.829295018124</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1145.829295018124</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1302.520320645319</v>
-      </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>811.9105159605548</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>811.9105159605548</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1519.492785054302</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V10" t="n">
-        <v>1519.492785054302</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.640381226815</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1002.07648467262</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1002.07648467262</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2144.184252312237</v>
+        <v>2533.780365848254</v>
       </c>
       <c r="C11" t="n">
-        <v>1717.283522325537</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1293.990901510537</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>868.0139616583948</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>442.889779847795</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.632070870094</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N11" t="n">
-        <v>1580.632070870094</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O11" t="n">
-        <v>2381.073683267897</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P11" t="n">
-        <v>3089.352962425824</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839607</v>
+        <v>4782.921672994138</v>
       </c>
       <c r="U11" t="n">
-        <v>2975.752615436019</v>
+        <v>4524.56676359055</v>
       </c>
       <c r="V11" t="n">
-        <v>2975.752615436019</v>
+        <v>4167.0773487168</v>
       </c>
       <c r="W11" t="n">
-        <v>2975.752615436019</v>
+        <v>3770.685999017147</v>
       </c>
       <c r="X11" t="n">
-        <v>2564.032616603767</v>
+        <v>3358.966000184894</v>
       </c>
       <c r="Y11" t="n">
-        <v>2564.032616603767</v>
+        <v>2953.628730139785</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>1136.821252174186</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1136.821252174186</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1136.821252174186</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.7612160464561</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>288.7612160464561</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>288.7612160464561</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>288.7612160464561</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>288.7612160464561</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>288.7612160464561</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1653.811374487137</v>
+        <v>2429.413071721395</v>
       </c>
       <c r="C14" t="n">
-        <v>1226.910644500437</v>
+        <v>2002.512341734695</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.910644500437</v>
+        <v>1579.219720919695</v>
       </c>
       <c r="E14" t="n">
-        <v>1226.910644500437</v>
+        <v>1153.242781067553</v>
       </c>
       <c r="F14" t="n">
-        <v>801.7864626898374</v>
+        <v>728.1185992569528</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>323.7795368464015</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L14" t="n">
-        <v>64.68215049679215</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M14" t="n">
-        <v>865.123762894595</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N14" t="n">
-        <v>1665.565375292398</v>
+        <v>2876.78150025468</v>
       </c>
       <c r="O14" t="n">
-        <v>1952.186431295594</v>
+        <v>3721.926150405492</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453521</v>
+        <v>4430.20542956342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U14" t="n">
-        <v>2975.752615436019</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V14" t="n">
-        <v>2618.263200562269</v>
+        <v>4062.71005458994</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.871850862616</v>
+        <v>3666.318704890287</v>
       </c>
       <c r="X14" t="n">
-        <v>2221.871850862616</v>
+        <v>3254.598706058035</v>
       </c>
       <c r="Y14" t="n">
-        <v>2073.659738778667</v>
+        <v>2849.261436012925</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M15" t="n">
-        <v>865.123762894595</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292398</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>288.7612160464561</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>116.7886529253721</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>64.68215049679215</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2699530687797</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.9271847585218</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5594,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1033.96404804924</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W19" t="n">
-        <v>1260.306816359498</v>
+        <v>1790.689676197778</v>
       </c>
       <c r="X19" t="n">
-        <v>1260.306816359498</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1033.96404804924</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>533.9931985757493</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5840,16 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1655.299238527233</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3899.49916549545</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>3727.526602374366</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D22" t="n">
-        <v>3564.209829501137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>3398.00162365399</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3226.139849428551</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4833.424202899456</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>4558.571799071969</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>4316.007902517774</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>4089.665134207516</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>775.6620294727279</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>603.6894663516439</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D25" t="n">
-        <v>440.3726934784146</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>789.9291292906429</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6227,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2720.098147267829</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3696.34920575453</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,19 +6314,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>655.1318596602905</v>
+        <v>3205.840321740789</v>
       </c>
       <c r="C28" t="n">
-        <v>655.1318596602905</v>
+        <v>3033.867758619705</v>
       </c>
       <c r="D28" t="n">
-        <v>491.8150867870612</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E28" t="n">
-        <v>325.6068809399147</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V28" t="n">
-        <v>1589.056897064296</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W28" t="n">
-        <v>1314.204493236809</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X28" t="n">
-        <v>1071.640596682614</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y28" t="n">
-        <v>845.2978283723562</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6537,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>275.5106105659859</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>275.5106105659859</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>275.5106105659859</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.8257932127802</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C31" t="n">
-        <v>697.8532300916962</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D31" t="n">
-        <v>534.5364572184669</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E31" t="n">
-        <v>368.3282513713204</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.018283751469</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W31" t="n">
-        <v>1267.165879923982</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.601983369787</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y31" t="n">
-        <v>1024.601983369787</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,46 +6688,46 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>195.4640539534674</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534674</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
         <v>4789.8428052092</v>
@@ -6734,13 +6736,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
         <v>2960.549862354846</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C34" t="n">
-        <v>373.4203922683193</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D34" t="n">
-        <v>210.10361939509</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>210.10361939509</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>210.10361939509</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>210.10361939509</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2179.643783443831</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1936.304435669731</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1656.119987170036</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1374.408519778064</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1099.556115950577</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>856.9922193963826</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>630.6494510861246</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>796.0638950398506</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C37" t="n">
-        <v>796.0638950398506</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D37" t="n">
-        <v>706.3982314439065</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E37" t="n">
-        <v>540.1900255967601</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.357631525569</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="V37" t="n">
-        <v>1503.646164133598</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="W37" t="n">
-        <v>1228.793760306111</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X37" t="n">
-        <v>986.2298637519162</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y37" t="n">
-        <v>986.2298637519162</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,7 +7262,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>615.9842888225141</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C40" t="n">
-        <v>444.0117257014301</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D40" t="n">
-        <v>444.0117257014301</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="E40" t="n">
-        <v>277.8035198542836</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F40" t="n">
-        <v>105.9417456288441</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>105.9417456288441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7360,22 +7362,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X40" t="n">
-        <v>1032.493025844838</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.1502575345799</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1997.201891670715</v>
+        <v>2429.413071721395</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.301161684015</v>
+        <v>2002.512341734695</v>
       </c>
       <c r="D41" t="n">
-        <v>1570.301161684015</v>
+        <v>1579.219720919695</v>
       </c>
       <c r="E41" t="n">
-        <v>1144.324221831873</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>719.200040021273</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>314.8609776107216</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679215</v>
+        <v>540.2611071157297</v>
       </c>
       <c r="L41" t="n">
-        <v>865.123762894595</v>
+        <v>1469.886154735006</v>
       </c>
       <c r="M41" t="n">
-        <v>1151.744818897791</v>
+        <v>2474.172256154065</v>
       </c>
       <c r="N41" t="n">
-        <v>1151.744818897791</v>
+        <v>3450.423314640766</v>
       </c>
       <c r="O41" t="n">
-        <v>1952.186431295594</v>
+        <v>4295.567964791578</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.465710453521</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839607</v>
+        <v>4062.71005458994</v>
       </c>
       <c r="W41" t="n">
-        <v>3234.107524839607</v>
+        <v>3666.318704890287</v>
       </c>
       <c r="X41" t="n">
-        <v>2822.387526007355</v>
+        <v>3254.598706058035</v>
       </c>
       <c r="Y41" t="n">
-        <v>2417.050255962245</v>
+        <v>2849.261436012925</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.928168679499</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.8332607165451</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C43" t="n">
-        <v>399.860697595461</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="D43" t="n">
-        <v>236.5439247222317</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="E43" t="n">
-        <v>236.5439247222317</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="F43" t="n">
-        <v>64.68215049679215</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679215</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U43" t="n">
-        <v>1787.469765512522</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1505.758298120551</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W43" t="n">
-        <v>1230.905894293064</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X43" t="n">
-        <v>988.3419977388687</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.9992294286108</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2408.921890502967</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2041.283333911051</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.990713096051</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1192.013773243908</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L44" t="n">
-        <v>780.1904584722912</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.632070870094</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N44" t="n">
-        <v>2069.742766177496</v>
+        <v>3010.239152404026</v>
       </c>
       <c r="O44" t="n">
-        <v>2069.742766177496</v>
+        <v>3721.926150405492</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335424</v>
+        <v>4430.20542956342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839607</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>3234.107524839607</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>3234.107524839607</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>3234.107524839607</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2828.770254794498</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M45" t="n">
-        <v>272.4865562816963</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.928168679499</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>749.2742246142482</v>
+        <v>1124.059229422213</v>
       </c>
       <c r="C46" t="n">
-        <v>577.3016614931641</v>
+        <v>952.0866663011286</v>
       </c>
       <c r="D46" t="n">
-        <v>413.9848886199348</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>247.7766827727884</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>75.91490854734883</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T46" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.910729410225</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.199262018254</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.346858190767</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="X46" t="n">
-        <v>1165.782961636572</v>
+        <v>1540.567966444536</v>
       </c>
       <c r="Y46" t="n">
-        <v>939.4401933263139</v>
+        <v>1314.225198134278</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>298.7878524343791</v>
+        <v>450.7747902674474</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>185.9918631203545</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,10 +8306,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O6" t="n">
-        <v>98.59786501766862</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8316,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8465,13 +8467,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8532,28 +8534,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,22 +8695,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>474.9037794053508</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.3414043154899</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222298</v>
+        <v>951.5880457335785</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>296.9254392253706</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,19 +8929,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>165.8504292605631</v>
       </c>
       <c r="O14" t="n">
-        <v>326.9071775410705</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222298</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>233.0753299089942</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>507.6330667855089</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9164,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086323</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9240,19 +9242,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M18" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>105.5494758988752</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9413,13 +9415,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>866.4310157363761</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,7 +9488,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9495,10 +9497,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>281.0208821870649</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>700.6282357017791</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -9975,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>189.8348441345914</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>123.5223236751208</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10595,13 +10597,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>489.184786214375</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>480.3950677006069</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>326.9474810844781</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11148,10 +11150,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>765.331441246992</v>
+        <v>949.8342934347921</v>
       </c>
       <c r="O42" t="n">
-        <v>831.698770932124</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11297,19 +11299,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>531.3308302156604</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>756.2667149130607</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>233.0002206990998</v>
+        <v>383.3462223301475</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.648410051340932</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>355.307716013622</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19.29091348988661</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>73.42412869296828</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.5539063815488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>150.0045900020172</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>53.32812537571792</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>18.44967133088784</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>174.1398802052092</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>47.1854451728326</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>63.52994056050392</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>113.6664306331501</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.03588076950794</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.93792262753476</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25090,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>134.4062914546851</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>66.39245920468201</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>72.91459818451231</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>6.759898196019833</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,16 +25557,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>160.2240614002184</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.7556639061418</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>73.42412869296828</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>47.21265589791531</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>19.29091348988641</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.23940003763309</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>58.66955166083528</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>107.9720312369321</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.60684960120417</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448402.9307113885</v>
+        <v>595465.4980659536</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448402.9307113885</v>
+        <v>595465.4980659536</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>604713.3900118516</v>
+        <v>604713.3900118517</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448402.9307113887</v>
+        <v>595465.4980659535</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448402.9307113885</v>
+        <v>595465.4980659535</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.9343080929</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.9343080933</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.934308093</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="E2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="F2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519656</v>
       </c>
       <c r="G2" t="n">
         <v>407472.0422746489</v>
       </c>
       <c r="H2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="I2" t="n">
         <v>407472.042274649</v>
@@ -26344,16 +26346,16 @@
         <v>407472.042274649</v>
       </c>
       <c r="M2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="N2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746489</v>
       </c>
       <c r="O2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="P2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519657</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.287616561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481353</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="F4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="P4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.6795211164</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803248</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11666.87405019242</v>
+        <v>11666.87405019213</v>
       </c>
       <c r="C6" t="n">
-        <v>198071.6074649297</v>
+        <v>198071.6074649298</v>
       </c>
       <c r="D6" t="n">
-        <v>198071.6074649295</v>
+        <v>198071.6074649296</v>
       </c>
       <c r="E6" t="n">
-        <v>155864.3456290711</v>
+        <v>88769.5311062559</v>
       </c>
       <c r="F6" t="n">
-        <v>231195.2967825332</v>
+        <v>296201.8187228167</v>
       </c>
       <c r="G6" t="n">
-        <v>171399.2932187672</v>
+        <v>292664.0709468264</v>
       </c>
       <c r="H6" t="n">
-        <v>300289.6930303078</v>
+        <v>300289.693030308</v>
       </c>
       <c r="I6" t="n">
         <v>300289.6930303078</v>
@@ -26546,22 +26548,22 @@
         <v>154756.0230954914</v>
       </c>
       <c r="K6" t="n">
-        <v>300289.6930303078</v>
+        <v>300289.6930303079</v>
       </c>
       <c r="L6" t="n">
-        <v>300289.6930303078</v>
+        <v>300289.6930303079</v>
       </c>
       <c r="M6" t="n">
-        <v>237415.756064934</v>
+        <v>127159.2018246683</v>
       </c>
       <c r="N6" t="n">
         <v>300289.6930303078</v>
       </c>
       <c r="O6" t="n">
-        <v>231195.2967825332</v>
+        <v>296201.8187228169</v>
       </c>
       <c r="P6" t="n">
-        <v>231195.2967825333</v>
+        <v>296201.8187228169</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.82210658548024</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155942</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.82210658548024</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>53.82850041003985</v>
       </c>
       <c r="Y2" t="n">
-        <v>261.0072389248297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>67.62133122010752</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>133.2769165173508</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>46.25593661269676</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>199.3090946901679</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27673,10 +27675,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>68.33574918213611</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>93.59337047736301</v>
+        <v>196.1965332168822</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>34.92619976282015</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.7088052046618</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>263.0232516395698</v>
+        <v>415.010189472638</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>162.8199733981322</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>415.010189472638</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>158.2737632597932</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>75.42597529544641</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806207</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35185,13 +35187,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>158.2737632597931</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,22 +35415,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>437.3284175951195</v>
       </c>
       <c r="Q11" t="n">
-        <v>146.2167297108918</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099018</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>275.1545980205419</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>128.5708064261171</v>
       </c>
       <c r="O14" t="n">
-        <v>289.5162181850464</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099018</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526082</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M18" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>69.78487510406583</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36133,13 +36135,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>829.040056380352</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,7 +36208,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>258.2738438980864</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>677.4563459795569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>167.4356103012581</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>94.10236418953426</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37315,13 +37317,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>451.905163379929</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>444.6304669057976</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>289.5162181850463</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>743.9884130334503</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>494.0512073812144</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>718.8757555570367</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>209.9034401867719</v>
+        <v>360.2494418178195</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1772714.869418025</v>
+        <v>1771996.879303167</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760735</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>175.4783660273394</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>353.7742984338904</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.6429778048375</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>54.54403228521223</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>369.393944035918</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -910,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>154.168123716444</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,19 +1056,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>123.0673923170403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>25.13775189891358</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1144,10 +1144,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.0873641277763</v>
+        <v>292.0778619076204</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>156.3950745845503</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>417.9833126354919</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>387.7790261513146</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1545,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>53.25551766955339</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>221.4655660477372</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>169.983518543731</v>
       </c>
     </row>
     <row r="17">
@@ -2022,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>45.44275720140907</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>186.810132212935</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>90.86382889645651</v>
       </c>
     </row>
     <row r="23">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>51.58543740429418</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2715,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>98.15366458399308</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>57.24387488545712</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>260.444681387164</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>102.0412378013745</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3435,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>161.6737988100367</v>
+        <v>161.8221947487779</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.1427835161697</v>
       </c>
       <c r="E40" t="n">
-        <v>4.322062388456545</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>348.2930417606527</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>90.90136429434182</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>123.0673923170407</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3951,7 +3951,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -4033,13 +4033,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726197</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>103.0767555432928</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>24.43802729683349</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>938.0105478030285</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C2" t="n">
-        <v>915.1502218567327</v>
+        <v>965.1452933471885</v>
       </c>
       <c r="D2" t="n">
-        <v>491.857601041733</v>
+        <v>945.8930765725928</v>
       </c>
       <c r="E2" t="n">
-        <v>469.9210652299946</v>
+        <v>519.9161367204504</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4333,22 +4333,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.196182139668</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y2" t="n">
-        <v>1357.858912094558</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C4" t="n">
         <v>955.7067844524004</v>
@@ -4488,25 +4488,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1889.631821856406</v>
       </c>
       <c r="W4" t="n">
-        <v>1249.540941315744</v>
+        <v>1614.779418028919</v>
       </c>
       <c r="X4" t="n">
-        <v>1249.540941315744</v>
+        <v>1372.215521474724</v>
       </c>
       <c r="Y4" t="n">
-        <v>1249.540941315744</v>
+        <v>1145.872753164466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>972.9074190595572</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>950.0470931132614</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>930.7948763386657</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>572.914647509062</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W5" t="n">
-        <v>1724.152608635864</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X5" t="n">
-        <v>1716.473013844015</v>
+        <v>990.0122453153889</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.176147839309</v>
+        <v>988.7153793106833</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>144.2667933089716</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>144.2667933089716</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
         <v>144.2667933089716</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972.9074190595574</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>930.7948763386659</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
         <v>79.39509630577632</v>
@@ -4804,22 +4804,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
         <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
+        <v>667.4947029893171</v>
+      </c>
+      <c r="N8" t="n">
+        <v>667.4947029893171</v>
+      </c>
+      <c r="O8" t="n">
         <v>1218.160237973755</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1768.825772958194</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1607.594331807357</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1195.874332975104</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>988.7153793106834</v>
+        <v>180.6345712298752</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1944.72680396268</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1944.72680396268</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2533.780365848254</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
         <v>2111.574999549778</v>
@@ -5041,52 +5041,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2749.496401892824</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="N11" t="n">
-        <v>3725.747460379525</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>4570.892110530337</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>5003.847243949505</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>4782.921672994138</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U11" t="n">
-        <v>4524.56676359055</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V11" t="n">
-        <v>4167.0773487168</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W11" t="n">
-        <v>3770.685999017147</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3358.966000184894</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2953.628730139785</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5129,10 +5129,10 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5205,7 +5205,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292119</v>
+        <v>2226.69652010065</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292119</v>
+        <v>1983.35717232655</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292119</v>
+        <v>1983.35717232655</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1701.645704934579</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1426.793301107092</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>1184.229404552897</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>957.886636242639</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721395</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734695</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919695</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067553</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569528</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>323.7795368464015</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
         <v>100.0769448789901</v>
@@ -5278,52 +5278,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.78150025468</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405492</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.20542956342</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067603</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822646</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867279</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463691</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.71005458994</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890287</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058035</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012925</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>1427.760972134626</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>1427.760972134626</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1427.760972134626</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5442,7 +5442,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,31 +5454,31 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292119</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292119</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292119</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292119</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1545.124559896839</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1545.124559896839</v>
       </c>
       <c r="Y16" t="n">
         <v>1373.424036115293</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,19 +5503,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5530,22 +5530,22 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905341</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5706,19 +5706,19 @@
         <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W19" t="n">
-        <v>1790.689676197778</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5837,19 +5837,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
-        <v>1655.299238527233</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5952,10 +5952,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>893.6727671820549</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6077,13 +6077,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>154.4092158344085</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G25" t="n">
-        <v>154.4092158344085</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H25" t="n">
-        <v>154.4092158344085</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3205.840321740789</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C28" t="n">
-        <v>3033.867758619705</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D28" t="n">
-        <v>2934.722642878298</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878298</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878298</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810561</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036461</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536766</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4139.765359144794</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>3864.912955317307</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>3622.349058763113</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>3396.006290452855</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6472,28 +6472,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2019.640305074347</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,46 +6688,46 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>195.4640539534674</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>195.4640539534674</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1125.089101572744</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991802</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
         <v>4789.8428052092</v>
@@ -6736,13 +6736,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
         <v>2960.549862354846</v>
@@ -6788,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>440.483482374059</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C34" t="n">
-        <v>268.510919252975</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2179.643783443831</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1936.304435669731</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U34" t="n">
-        <v>1656.119987170036</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V34" t="n">
-        <v>1374.408519778064</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W34" t="n">
-        <v>1099.556115950577</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X34" t="n">
-        <v>856.9922193963826</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y34" t="n">
-        <v>630.6494510861246</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7025,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402535</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281451</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408221</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561075</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335635</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629867</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4951.828802806541</v>
+        <v>2072.220365133627</v>
       </c>
       <c r="T37" t="n">
-        <v>4951.828802806541</v>
+        <v>1828.881017359527</v>
       </c>
       <c r="U37" t="n">
-        <v>4951.828802806541</v>
+        <v>1548.696568859832</v>
       </c>
       <c r="V37" t="n">
-        <v>4951.828802806541</v>
+        <v>1266.98510146786</v>
       </c>
       <c r="W37" t="n">
-        <v>4676.976398979054</v>
+        <v>992.1326976403734</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.412502424859</v>
+        <v>992.1326976403734</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>765.7899293301155</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7259,7 +7259,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M39" t="n">
         <v>821.6753975134684</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.7597400424195</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C40" t="n">
-        <v>444.7871769213355</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7871769213355</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E40" t="n">
-        <v>440.4214573370359</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V40" t="n">
-        <v>1550.684777446425</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.832373618938</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X40" t="n">
-        <v>1033.268477064743</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.9257087544852</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721395</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734695</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919695</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
         <v>1227.408567626107</v>
@@ -7411,52 +7411,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>540.2611071157297</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1469.886154735006</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2474.172256154065</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3450.423314640766</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O41" t="n">
-        <v>4295.567964791578</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>5003.847243949505</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949505</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822646</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867279</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463691</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.71005458994</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890287</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058035</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012925</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7496,13 +7496,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M42" t="n">
-        <v>100.0769448789901</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>1019.283297448028</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
         <v>1908.7645754595</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.1560104286543</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>324.1560104286543</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>324.1560104286543</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>324.1560104286543</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>324.1560104286543</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>324.1560104286543</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
         <v>199.8455131387141</v>
@@ -7575,7 +7575,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979292</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498427</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724327</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U43" t="n">
-        <v>1539.792515224631</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V43" t="n">
-        <v>1258.08104783266</v>
+        <v>1501.420395606759</v>
       </c>
       <c r="W43" t="n">
-        <v>983.2286440051728</v>
+        <v>1501.420395606759</v>
       </c>
       <c r="X43" t="n">
-        <v>740.6647474509779</v>
+        <v>1501.420395606759</v>
       </c>
       <c r="Y43" t="n">
-        <v>514.3219791407199</v>
+        <v>1275.077627296502</v>
       </c>
     </row>
     <row r="44">
@@ -7648,43 +7648,43 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.988093917325</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>3010.239152404026</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405492</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.20542956342</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067603</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822646</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
         <v>3775.38136270537</v>
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7727,25 +7727,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>728.4213815582225</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>728.4213815582225</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O45" t="n">
-        <v>728.4213815582225</v>
+        <v>989.5582228904617</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1705.75593992896</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1124.059229422213</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C46" t="n">
-        <v>952.0866663011286</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D46" t="n">
         <v>847.9687314089136</v>
@@ -7812,7 +7812,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498427</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>2063.316311498427</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.131862998731</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.131862998731</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.131862998731</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X46" t="n">
-        <v>1540.567966444536</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.225198134278</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>180.7888499740227</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>572.0660045132436</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8236,10 +8236,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>463.1564485244919</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733348</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>301.3352940721928</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,16 +8543,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>932.91012739026</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>474.9037794053508</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8777,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>951.5880457335785</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8938,10 +8938,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>165.8504292605631</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>772.1208831718561</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,10 +9023,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>507.6330667855089</v>
+        <v>501.4810380814831</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9178,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>492.8628464086323</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
-        <v>866.4310157363761</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9485,7 +9485,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9494,13 +9494,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>281.0208821870649</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9725,16 +9725,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>123.5223236751208</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,25 +10828,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646197</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>743.9259979858341</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>480.3950677006069</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11071,19 +11071,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>653.2657740422958</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>949.8342934347921</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
-        <v>756.2667149130607</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>383.3462223301475</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.648410051340932</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>4.648410051342012</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>115.1781793365031</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>73.42412869296828</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>54.09582208342434</v>
       </c>
     </row>
     <row r="17">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>231.9398468132897</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>53.32812537571792</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>133.2155117306989</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24384,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>47.1854451728326</v>
+        <v>2.326677470262837</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>63.52994056050392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>112.8992815977281</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.93792262753476</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>66.39245920468201</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.759898196019833</v>
+        <v>6.61150225727863</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>12.54082162832725</v>
       </c>
       <c r="E40" t="n">
-        <v>160.2240614002184</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>73.42412869296828</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.36294473060318</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>19.29091348988641</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.9720312369321</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.60684960120417</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>247.6658524923786</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>595465.4980659536</v>
+        <v>595465.4980659535</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>595465.4980659536</v>
+        <v>595465.4980659535</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>604713.3900118516</v>
+        <v>604713.3900118517</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>604713.3900118517</v>
+        <v>604713.3900118516</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>604713.3900118517</v>
+        <v>604713.3900118516</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>604713.3900118517</v>
+        <v>604713.3900118516</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>604713.3900118516</v>
+        <v>604713.3900118517</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>604713.3900118516</v>
+        <v>604713.3900118517</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080929</v>
+        <v>422270.9343080933</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.934308093</v>
       </c>
       <c r="D2" t="n">
         <v>422270.9343080931</v>
@@ -26325,10 +26325,10 @@
         <v>401240.9763519657</v>
       </c>
       <c r="F2" t="n">
-        <v>401240.9763519656</v>
+        <v>401240.9763519658</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.042274649</v>
       </c>
       <c r="H2" t="n">
         <v>407472.0422746491</v>
@@ -26340,22 +26340,22 @@
         <v>407472.0422746491</v>
       </c>
       <c r="K2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="L2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="M2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="N2" t="n">
         <v>407472.0422746491</v>
-      </c>
-      <c r="N2" t="n">
-        <v>407472.0422746489</v>
       </c>
       <c r="O2" t="n">
         <v>401240.9763519657</v>
       </c>
       <c r="P2" t="n">
-        <v>401240.9763519657</v>
+        <v>401240.9763519656</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.287616561</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481353</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26456,7 +26456,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>28980.6795211164</v>
+        <v>28980.67952111639</v>
       </c>
       <c r="P4" t="n">
         <v>28980.6795211164</v>
@@ -26478,40 +26478,40 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11666.87405019213</v>
+        <v>11666.87405019253</v>
       </c>
       <c r="C6" t="n">
-        <v>198071.6074649298</v>
+        <v>198071.6074649295</v>
       </c>
       <c r="D6" t="n">
         <v>198071.6074649296</v>
       </c>
       <c r="E6" t="n">
-        <v>88769.5311062559</v>
+        <v>88697.01400985545</v>
       </c>
       <c r="F6" t="n">
-        <v>296201.8187228167</v>
+        <v>296129.3016264166</v>
       </c>
       <c r="G6" t="n">
-        <v>292664.0709468264</v>
+        <v>292613.0402846421</v>
       </c>
       <c r="H6" t="n">
-        <v>300289.693030308</v>
+        <v>300238.6623681237</v>
       </c>
       <c r="I6" t="n">
-        <v>300289.6930303078</v>
+        <v>300238.6623681235</v>
       </c>
       <c r="J6" t="n">
-        <v>154756.0230954914</v>
+        <v>154704.9924333071</v>
       </c>
       <c r="K6" t="n">
-        <v>300289.6930303079</v>
+        <v>300238.6623681236</v>
       </c>
       <c r="L6" t="n">
-        <v>300289.6930303079</v>
+        <v>300238.6623681235</v>
       </c>
       <c r="M6" t="n">
-        <v>127159.2018246683</v>
+        <v>127108.171162484</v>
       </c>
       <c r="N6" t="n">
-        <v>300289.6930303078</v>
+        <v>300238.6623681237</v>
       </c>
       <c r="O6" t="n">
-        <v>296201.8187228169</v>
+        <v>296129.3016264164</v>
       </c>
       <c r="P6" t="n">
-        <v>296201.8187228169</v>
+        <v>296129.3016264163</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548024</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155942</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548024</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>245.3945739651543</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27444,7 +27444,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>53.82850041003985</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.62133122010752</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>224.3503204328391</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.25593661269676</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>253.4346751274862</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>215.7682023974454</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>196.1965332168822</v>
+        <v>109.2060354370381</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.7088052046618</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>533.7539620806207</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L8" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>437.3284175951195</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>928.4912652212505</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35658,10 +35658,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>128.5708064261171</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>734.729923815832</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>485.8622255806802</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>455.4718870526082</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
-        <v>829.040056380352</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>258.2738438980864</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36445,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>94.10236418953426</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319968</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>706.646375151388</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>444.6304669057976</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37791,19 +37791,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>928.4912652212505</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
-        <v>718.8757555570367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>360.2494418178195</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
